--- a/CompositeModels/Promotions.xlsx
+++ b/CompositeModels/Promotions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/ninamunteanu_microsoft_com/Documents/Dentsu Open Hack/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninamunteanu\Documents\GitHub\PBIHackathon\CompositeModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{73C332A8-59CC-4C2B-87CE-FECAE25DC125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1150D42A-29FE-40FD-8D38-1506985F1615}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F345FFAB-8232-484B-9340-555B58E2E208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82380" yWindow="11865" windowWidth="14355" windowHeight="8985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46350" yWindow="3990" windowWidth="26490" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotions" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="B24" s="1">
         <v>41670</v>
@@ -1514,4 +1514,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>